--- a/R peak detection/beatdetection/NST.xlsx
+++ b/R peak detection/beatdetection/NST.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,31 +447,31 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1581</v>
+        <v>2226</v>
       </c>
       <c r="C1" t="n">
         <v>2278</v>
       </c>
       <c r="D1" t="n">
-        <v>879</v>
+        <v>1404</v>
       </c>
       <c r="E1" t="n">
-        <v>701</v>
+        <v>821</v>
       </c>
       <c r="F1" t="n">
-        <v>1398</v>
+        <v>873</v>
       </c>
       <c r="G1" t="n">
-        <v>38.6034255599473</v>
+        <v>61.6600790513834</v>
       </c>
       <c r="H1" t="n">
-        <v>55.63291139240506</v>
+        <v>63.10112359550562</v>
       </c>
       <c r="I1" t="n">
-        <v>0.9214223002633889</v>
+        <v>0.7436347673397717</v>
       </c>
       <c r="J1" t="n">
-        <v>76.74375367164612</v>
+        <v>83.09997510910034</v>
       </c>
     </row>
     <row r="2">
@@ -481,31 +481,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2043</v>
+        <v>2765</v>
       </c>
       <c r="C2" t="n">
         <v>2278</v>
       </c>
       <c r="D2" t="n">
-        <v>1381</v>
+        <v>2072</v>
       </c>
       <c r="E2" t="n">
-        <v>661</v>
+        <v>692</v>
       </c>
       <c r="F2" t="n">
-        <v>896</v>
+        <v>205</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64997804128239</v>
+        <v>90.99692577953448</v>
       </c>
       <c r="H2" t="n">
-        <v>67.62977473065622</v>
+        <v>74.96382054992765</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6834942932396839</v>
+        <v>0.393766461808604</v>
       </c>
       <c r="J2" t="n">
-        <v>77.57726287841797</v>
+        <v>75.49118638038635</v>
       </c>
     </row>
     <row r="3">
@@ -515,31 +515,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2760</v>
+        <v>2634</v>
       </c>
       <c r="C3" t="n">
         <v>2278</v>
       </c>
       <c r="D3" t="n">
-        <v>2207</v>
+        <v>2213</v>
       </c>
       <c r="E3" t="n">
-        <v>552</v>
+        <v>420</v>
       </c>
       <c r="F3" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G3" t="n">
-        <v>96.92577953447518</v>
+        <v>97.18928414580589</v>
       </c>
       <c r="H3" t="n">
-        <v>79.99275099673795</v>
+        <v>84.04861374857578</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2730465320456541</v>
+        <v>0.2124670763827919</v>
       </c>
       <c r="J3" t="n">
-        <v>87.77409267425537</v>
+        <v>77.21280813217163</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2645</v>
+        <v>2466</v>
       </c>
       <c r="C4" t="n">
         <v>2278</v>
@@ -558,7 +558,7 @@
         <v>2277</v>
       </c>
       <c r="E4" t="n">
-        <v>367</v>
+        <v>188</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -567,13 +567,13 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>86.11951588502269</v>
+        <v>92.37322515212982</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1611062335381914</v>
+        <v>0.08252853380158033</v>
       </c>
       <c r="J4" t="n">
-        <v>114.6724996566772</v>
+        <v>78.55643463134766</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2372</v>
+        <v>2331</v>
       </c>
       <c r="C5" t="n">
         <v>2278</v>
@@ -592,7 +592,7 @@
         <v>2277</v>
       </c>
       <c r="E5" t="n">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -601,159 +601,159 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>96.03542808941376</v>
+        <v>97.72532188841201</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04126426690079017</v>
+        <v>0.02326602282704126</v>
       </c>
       <c r="J5" t="n">
-        <v>128.1351335048676</v>
+        <v>78.6871497631073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>118e24</t>
+          <t>119e_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2286</v>
+        <v>2499</v>
       </c>
       <c r="C6" t="n">
-        <v>2278</v>
+        <v>1987</v>
       </c>
       <c r="D6" t="n">
-        <v>2277</v>
+        <v>1591</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>906</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>80.11077542799597</v>
       </c>
       <c r="H6" t="n">
-        <v>99.64989059080963</v>
+        <v>63.71645975170204</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003511852502194908</v>
+        <v>0.6547559134373427</v>
       </c>
       <c r="J6" t="n">
-        <v>127.0421006679535</v>
+        <v>87.67913198471069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>119e_6</t>
+          <t>119e00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2128</v>
+        <v>2538</v>
       </c>
       <c r="C7" t="n">
         <v>1987</v>
       </c>
       <c r="D7" t="n">
-        <v>1329</v>
+        <v>1851</v>
       </c>
       <c r="E7" t="n">
-        <v>798</v>
+        <v>685</v>
       </c>
       <c r="F7" t="n">
-        <v>657</v>
+        <v>135</v>
       </c>
       <c r="G7" t="n">
-        <v>66.91842900302115</v>
+        <v>93.20241691842901</v>
       </c>
       <c r="H7" t="n">
-        <v>62.48236953455572</v>
+        <v>72.98895899053628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7322596879718168</v>
+        <v>0.4126824358329139</v>
       </c>
       <c r="J7" t="n">
-        <v>86.5953905582428</v>
+        <v>83.81719088554382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>119e00</t>
+          <t>119e06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2626</v>
+        <v>2388</v>
       </c>
       <c r="C8" t="n">
         <v>1987</v>
       </c>
       <c r="D8" t="n">
-        <v>1844</v>
+        <v>1967</v>
       </c>
       <c r="E8" t="n">
-        <v>781</v>
+        <v>419</v>
       </c>
       <c r="F8" t="n">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>92.84994964753272</v>
+        <v>99.04330312185297</v>
       </c>
       <c r="H8" t="n">
-        <v>70.24761904761905</v>
+        <v>82.43922883487008</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4645193759436336</v>
+        <v>0.2204328132863614</v>
       </c>
       <c r="J8" t="n">
-        <v>100.2404901981354</v>
+        <v>86.12558889389038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>119e06</t>
+          <t>119e12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2599</v>
+        <v>2243</v>
       </c>
       <c r="C9" t="n">
         <v>1987</v>
       </c>
       <c r="D9" t="n">
-        <v>1975</v>
+        <v>1986</v>
       </c>
       <c r="E9" t="n">
-        <v>623</v>
+        <v>255</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>99.44612286002014</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>76.02001539645882</v>
+        <v>88.62115127175367</v>
       </c>
       <c r="I9" t="n">
-        <v>0.319073980875692</v>
+        <v>0.128334172118772</v>
       </c>
       <c r="J9" t="n">
-        <v>106.3172993659973</v>
+        <v>89.00701522827148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>119e12</t>
+          <t>119e18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2422</v>
+        <v>2057</v>
       </c>
       <c r="C10" t="n">
         <v>1987</v>
@@ -762,7 +762,7 @@
         <v>1986</v>
       </c>
       <c r="E10" t="n">
-        <v>435</v>
+        <v>69</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -771,81 +771,13 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>82.03221809169764</v>
+        <v>96.64233576642336</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2189229994967287</v>
+        <v>0.03472571716155008</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6370394229889</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>119e18</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2240</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1987</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E11" t="n">
-        <v>253</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100</v>
-      </c>
-      <c r="H11" t="n">
-        <v>88.70031263957124</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1273276295923503</v>
-      </c>
-      <c r="J11" t="n">
-        <v>122.130509853363</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>119e24</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2200</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1987</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1986</v>
-      </c>
-      <c r="E12" t="n">
-        <v>213</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" t="n">
-        <v>90.3137789904502</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.1071967790639154</v>
-      </c>
-      <c r="J12" t="n">
-        <v>124.5641298294067</v>
+        <v>93.05727291107178</v>
       </c>
     </row>
   </sheetData>

--- a/R peak detection/beatdetection/NST.xlsx
+++ b/R peak detection/beatdetection/NST.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="wjkodco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,31 +447,31 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2226</v>
+        <v>2132</v>
       </c>
       <c r="C1" t="n">
         <v>2278</v>
       </c>
       <c r="D1" t="n">
-        <v>1404</v>
+        <v>1441</v>
       </c>
       <c r="E1" t="n">
-        <v>821</v>
+        <v>690</v>
       </c>
       <c r="F1" t="n">
-        <v>873</v>
+        <v>836</v>
       </c>
       <c r="G1" t="n">
-        <v>61.6600790513834</v>
+        <v>63.28502415458937</v>
       </c>
       <c r="H1" t="n">
-        <v>63.10112359550562</v>
+        <v>67.62083528859691</v>
       </c>
       <c r="I1" t="n">
-        <v>0.7436347673397717</v>
+        <v>0.6698858647936786</v>
       </c>
       <c r="J1" t="n">
-        <v>83.09997510910034</v>
+        <v>37.53536796569824</v>
       </c>
     </row>
     <row r="2">
@@ -481,31 +481,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2765</v>
+        <v>2723</v>
       </c>
       <c r="C2" t="n">
         <v>2278</v>
       </c>
       <c r="D2" t="n">
-        <v>2072</v>
+        <v>2135</v>
       </c>
       <c r="E2" t="n">
-        <v>692</v>
+        <v>587</v>
       </c>
       <c r="F2" t="n">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="G2" t="n">
-        <v>90.99692577953448</v>
+        <v>93.76372419850681</v>
       </c>
       <c r="H2" t="n">
-        <v>74.96382054992765</v>
+        <v>78.43497428361499</v>
       </c>
       <c r="I2" t="n">
-        <v>0.393766461808604</v>
+        <v>0.320017559262511</v>
       </c>
       <c r="J2" t="n">
-        <v>75.49118638038635</v>
+        <v>33.761390209198</v>
       </c>
     </row>
     <row r="3">
@@ -515,31 +515,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2634</v>
+        <v>2686</v>
       </c>
       <c r="C3" t="n">
         <v>2278</v>
       </c>
       <c r="D3" t="n">
-        <v>2213</v>
+        <v>2252</v>
       </c>
       <c r="E3" t="n">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>97.18928414580589</v>
+        <v>98.90206411945542</v>
       </c>
       <c r="H3" t="n">
-        <v>84.04861374857578</v>
+        <v>83.87337057728119</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2124670763827919</v>
+        <v>0.2010535557506585</v>
       </c>
       <c r="J3" t="n">
-        <v>77.21280813217163</v>
+        <v>33.32078385353088</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2466</v>
+        <v>2524</v>
       </c>
       <c r="C4" t="n">
         <v>2278</v>
@@ -558,7 +558,7 @@
         <v>2277</v>
       </c>
       <c r="E4" t="n">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -567,13 +567,13 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>92.37322515212982</v>
+        <v>90.24970273483947</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08252853380158033</v>
+        <v>0.1079894644424934</v>
       </c>
       <c r="J4" t="n">
-        <v>78.55643463134766</v>
+        <v>33.13162159919739</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2331</v>
+        <v>2382</v>
       </c>
       <c r="C5" t="n">
         <v>2278</v>
@@ -592,7 +592,7 @@
         <v>2277</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -601,159 +601,159 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>97.72532188841201</v>
+        <v>95.63208735825283</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02326602282704126</v>
+        <v>0.0456540825285338</v>
       </c>
       <c r="J5" t="n">
-        <v>78.6871497631073</v>
+        <v>33.1099750995636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>119e_6</t>
+          <t>118e24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2499</v>
+        <v>2296</v>
       </c>
       <c r="C6" t="n">
-        <v>1987</v>
+        <v>2278</v>
       </c>
       <c r="D6" t="n">
-        <v>1591</v>
+        <v>2277</v>
       </c>
       <c r="E6" t="n">
-        <v>906</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>80.11077542799597</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>63.71645975170204</v>
+        <v>99.21568627450981</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6547559134373427</v>
+        <v>0.007901668129938543</v>
       </c>
       <c r="J6" t="n">
-        <v>87.67913198471069</v>
+        <v>33.02952337265015</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>119e00</t>
+          <t>119e_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2538</v>
+        <v>2580</v>
       </c>
       <c r="C7" t="n">
         <v>1987</v>
       </c>
       <c r="D7" t="n">
-        <v>1851</v>
+        <v>1804</v>
       </c>
       <c r="E7" t="n">
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="F7" t="n">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="G7" t="n">
-        <v>93.20241691842901</v>
+        <v>90.83585095669687</v>
       </c>
       <c r="H7" t="n">
-        <v>72.98895899053628</v>
+        <v>69.94959286545172</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4126824358329139</v>
+        <v>0.4816305988928032</v>
       </c>
       <c r="J7" t="n">
-        <v>83.81719088554382</v>
+        <v>34.999924659729</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>119e06</t>
+          <t>119e00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2388</v>
+        <v>2546</v>
       </c>
       <c r="C8" t="n">
         <v>1987</v>
       </c>
       <c r="D8" t="n">
-        <v>1967</v>
+        <v>1904</v>
       </c>
       <c r="E8" t="n">
-        <v>419</v>
+        <v>641</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="G8" t="n">
-        <v>99.04330312185297</v>
+        <v>95.8710976837865</v>
       </c>
       <c r="H8" t="n">
-        <v>82.43922883487008</v>
+        <v>74.81335952848723</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2204328132863614</v>
+        <v>0.3638651233014595</v>
       </c>
       <c r="J8" t="n">
-        <v>86.12558889389038</v>
+        <v>34.20877838134766</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>119e12</t>
+          <t>119e06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2243</v>
+        <v>2406</v>
       </c>
       <c r="C9" t="n">
         <v>1987</v>
       </c>
       <c r="D9" t="n">
-        <v>1986</v>
+        <v>1974</v>
       </c>
       <c r="E9" t="n">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>99.39577039274924</v>
       </c>
       <c r="H9" t="n">
-        <v>88.62115127175367</v>
+        <v>82.07900207900208</v>
       </c>
       <c r="I9" t="n">
-        <v>0.128334172118772</v>
+        <v>0.2229491696024157</v>
       </c>
       <c r="J9" t="n">
-        <v>89.00701522827148</v>
+        <v>34.36983132362366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>119e18</t>
+          <t>119e12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2057</v>
+        <v>2279</v>
       </c>
       <c r="C10" t="n">
         <v>1987</v>
@@ -762,7 +762,7 @@
         <v>1986</v>
       </c>
       <c r="E10" t="n">
-        <v>69</v>
+        <v>292</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -771,13 +771,81 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>96.64233576642336</v>
+        <v>87.18173836698858</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03472571716155008</v>
+        <v>0.1469552088575742</v>
       </c>
       <c r="J10" t="n">
-        <v>93.05727291107178</v>
+        <v>34.58379507064819</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>119e18</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2086</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>99.9496475327291</v>
+      </c>
+      <c r="H11" t="n">
+        <v>95.20383693045564</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05083039758429794</v>
+      </c>
+      <c r="J11" t="n">
+        <v>35.22411513328552</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>119e24</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" t="n">
+        <v>99.05236907730674</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.009562154001006542</v>
+      </c>
+      <c r="J12" t="n">
+        <v>35.98699402809143</v>
       </c>
     </row>
   </sheetData>

--- a/R peak detection/beatdetection/NST.xlsx
+++ b/R peak detection/beatdetection/NST.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="wjkodco" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hsgdsd" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,31 +447,31 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2132</v>
+        <v>2171</v>
       </c>
       <c r="C1" t="n">
         <v>2278</v>
       </c>
       <c r="D1" t="n">
-        <v>1441</v>
+        <v>1454</v>
       </c>
       <c r="E1" t="n">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="F1" t="n">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="G1" t="n">
-        <v>63.28502415458937</v>
+        <v>63.85595081247255</v>
       </c>
       <c r="H1" t="n">
-        <v>67.62083528859691</v>
+        <v>67.00460829493088</v>
       </c>
       <c r="I1" t="n">
-        <v>0.6698858647936786</v>
+        <v>0.6755926251097454</v>
       </c>
       <c r="J1" t="n">
-        <v>37.53536796569824</v>
+        <v>38.7228045463562</v>
       </c>
     </row>
     <row r="2">
@@ -481,31 +481,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2723</v>
+        <v>2799</v>
       </c>
       <c r="C2" t="n">
         <v>2278</v>
       </c>
       <c r="D2" t="n">
-        <v>2135</v>
+        <v>2163</v>
       </c>
       <c r="E2" t="n">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="F2" t="n">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="G2" t="n">
-        <v>93.76372419850681</v>
+        <v>94.99341238471673</v>
       </c>
       <c r="H2" t="n">
-        <v>78.43497428361499</v>
+        <v>77.30521801286633</v>
       </c>
       <c r="I2" t="n">
-        <v>0.320017559262511</v>
+        <v>0.3287971905179982</v>
       </c>
       <c r="J2" t="n">
-        <v>33.761390209198</v>
+        <v>34.08335304260254</v>
       </c>
     </row>
     <row r="3">
@@ -515,31 +515,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2686</v>
+        <v>2735</v>
       </c>
       <c r="C3" t="n">
         <v>2278</v>
       </c>
       <c r="D3" t="n">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="E3" t="n">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>98.90206411945542</v>
+        <v>98.9459815546772</v>
       </c>
       <c r="H3" t="n">
-        <v>83.87337057728119</v>
+        <v>82.40673006583761</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2010535557506585</v>
+        <v>0.2216856892010536</v>
       </c>
       <c r="J3" t="n">
-        <v>33.32078385353088</v>
+        <v>33.54758167266846</v>
       </c>
     </row>
     <row r="4">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2524</v>
+        <v>2598</v>
       </c>
       <c r="C4" t="n">
         <v>2278</v>
@@ -558,7 +558,7 @@
         <v>2277</v>
       </c>
       <c r="E4" t="n">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -567,13 +567,13 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>90.24970273483947</v>
+        <v>87.67809010396611</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1079894644424934</v>
+        <v>0.1404741000877963</v>
       </c>
       <c r="J4" t="n">
-        <v>33.13162159919739</v>
+        <v>33.91161513328552</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2382</v>
+        <v>2430</v>
       </c>
       <c r="C5" t="n">
         <v>2278</v>
@@ -592,7 +592,7 @@
         <v>2277</v>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -601,13 +601,13 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>95.63208735825283</v>
+        <v>93.74228077398107</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0456540825285338</v>
+        <v>0.06672519754170325</v>
       </c>
       <c r="J5" t="n">
-        <v>33.1099750995636</v>
+        <v>33.98684811592102</v>
       </c>
     </row>
     <row r="6">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="C6" t="n">
         <v>2278</v>
@@ -626,7 +626,7 @@
         <v>2277</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -635,13 +635,13 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>99.21568627450981</v>
+        <v>99.38891313836753</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007901668129938543</v>
+        <v>0.006145741878841089</v>
       </c>
       <c r="J6" t="n">
-        <v>33.02952337265015</v>
+        <v>34.60854125022888</v>
       </c>
     </row>
     <row r="7">
@@ -651,31 +651,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2580</v>
+        <v>2648</v>
       </c>
       <c r="C7" t="n">
         <v>1987</v>
       </c>
       <c r="D7" t="n">
-        <v>1804</v>
+        <v>1828</v>
       </c>
       <c r="E7" t="n">
-        <v>775</v>
+        <v>819</v>
       </c>
       <c r="F7" t="n">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="G7" t="n">
-        <v>90.83585095669687</v>
+        <v>92.04431017119839</v>
       </c>
       <c r="H7" t="n">
-        <v>69.94959286545172</v>
+        <v>69.05931242916509</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4816305988928032</v>
+        <v>0.4916960241570206</v>
       </c>
       <c r="J7" t="n">
-        <v>34.999924659729</v>
+        <v>34.60814881324768</v>
       </c>
     </row>
     <row r="8">
@@ -685,31 +685,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2546</v>
+        <v>2594</v>
       </c>
       <c r="C8" t="n">
         <v>1987</v>
       </c>
       <c r="D8" t="n">
-        <v>1904</v>
+        <v>1914</v>
       </c>
       <c r="E8" t="n">
-        <v>641</v>
+        <v>679</v>
       </c>
       <c r="F8" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G8" t="n">
-        <v>95.8710976837865</v>
+        <v>96.37462235649546</v>
       </c>
       <c r="H8" t="n">
-        <v>74.81335952848723</v>
+        <v>73.81411492479754</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3638651233014595</v>
+        <v>0.3779567186713639</v>
       </c>
       <c r="J8" t="n">
-        <v>34.20877838134766</v>
+        <v>34.73143196105957</v>
       </c>
     </row>
     <row r="9">
@@ -719,31 +719,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2406</v>
+        <v>2473</v>
       </c>
       <c r="C9" t="n">
         <v>1987</v>
       </c>
       <c r="D9" t="n">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="E9" t="n">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>99.39577039274924</v>
+        <v>99.29506545820745</v>
       </c>
       <c r="H9" t="n">
-        <v>82.07900207900208</v>
+        <v>79.77346278317152</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2229491696024157</v>
+        <v>0.2586814292903875</v>
       </c>
       <c r="J9" t="n">
-        <v>34.36983132362366</v>
+        <v>35.29644227027893</v>
       </c>
     </row>
     <row r="10">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2279</v>
+        <v>2306</v>
       </c>
       <c r="C10" t="n">
         <v>1987</v>
@@ -762,7 +762,7 @@
         <v>1986</v>
       </c>
       <c r="E10" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>87.18173836698858</v>
+        <v>86.16052060737528</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1469552088575742</v>
+        <v>0.1605435329642677</v>
       </c>
       <c r="J10" t="n">
-        <v>34.58379507064819</v>
+        <v>34.97335338592529</v>
       </c>
     </row>
     <row r="11">
@@ -787,31 +787,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2086</v>
+        <v>2067</v>
       </c>
       <c r="C11" t="n">
         <v>1987</v>
       </c>
       <c r="D11" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E11" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>100</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>99.9496475327291</v>
-      </c>
       <c r="H11" t="n">
-        <v>95.20383693045564</v>
+        <v>96.12778315585673</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05083039758429794</v>
+        <v>0.04026170105686965</v>
       </c>
       <c r="J11" t="n">
-        <v>35.22411513328552</v>
+        <v>36.5628035068512</v>
       </c>
     </row>
     <row r="12">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="C12" t="n">
         <v>1987</v>
@@ -830,7 +830,7 @@
         <v>1986</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>99.05236907730674</v>
+        <v>99.44917376064096</v>
       </c>
       <c r="I12" t="n">
-        <v>0.009562154001006542</v>
+        <v>0.005535983895319578</v>
       </c>
       <c r="J12" t="n">
-        <v>35.98699402809143</v>
+        <v>36.69232439994812</v>
       </c>
     </row>
   </sheetData>
